--- a/medicine/Enfance/Petit_Ours_Brun_(série_télévisée_d'animation,_2018)/Petit_Ours_Brun_(série_télévisée_d'animation,_2018).xlsx
+++ b/medicine/Enfance/Petit_Ours_Brun_(série_télévisée_d'animation,_2018)/Petit_Ours_Brun_(série_télévisée_d'animation,_2018).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Petit_Ours_Brun_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation,_2018)</t>
+          <t>Petit_Ours_Brun_(série_télévisée_d'animation,_2018)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Petit Ours Brun est une série télévisée française d'animation 3D[1] en 52 épisodes[2] de sept minutes, réalisée par Charles Sansonetti assisté de Pierre-Emmanuel Besnard et Xavier Morelli, d'après la série de petites histoires Petit Ours Brun de Claude Lebrun et Danièle Bour, d'abord parue dans les années 1970 dans Pomme d'Api — le magazine des 3-7 ans du groupe Bayard Presse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petit Ours Brun est une série télévisée française d'animation 3D en 52 épisodes de sept minutes, réalisée par Charles Sansonetti assisté de Pierre-Emmanuel Besnard et Xavier Morelli, d'après la série de petites histoires Petit Ours Brun de Claude Lebrun et Danièle Bour, d'abord parue dans les années 1970 dans Pomme d'Api — le magazine des 3-7 ans du groupe Bayard Presse.
 Elle a été diffusée pour la première fois à partir du 1er octobre 2018 sur France 5 dans Zouzous.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Petit_Ours_Brun_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation,_2018)</t>
+          <t>Petit_Ours_Brun_(série_télévisée_d'animation,_2018)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petit Ours Brun est un ourson de 3 ans qui a les émotions d'un enfant dont l'âge se situe entre 2 et 4 ans.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Petit_Ours_Brun_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation,_2018)</t>
+          <t>Petit_Ours_Brun_(série_télévisée_d'animation,_2018)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Charles Antoine Sansonetti
 Assistants de réalisation : Pierre-Emmanuel Besnard, Xavier Morelli
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Petit_Ours_Brun_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation,_2018)</t>
+          <t>Petit_Ours_Brun_(série_télévisée_d'animation,_2018)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Distribution (voix françaises)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tess Amic : Petit Ours Brun
 Rosalie Le Bars : Grande Ourse Rousse
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Petit_Ours_Brun_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e_d%27animation,_2018)</t>
+          <t>Petit_Ours_Brun_(série_télévisée_d'animation,_2018)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saison 1 (2018-2019)
+          <t>Saison 1 (2018-2019)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le Goût des fraises
 La Carte postale
 Mission pain
